--- a/biology/Médecine/Ligament/Ligament.xlsx
+++ b/biology/Médecine/Ligament/Ligament.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un ligament est une bande de tissu conjonctif fibreux très solide qui relie deux organes entre eux.
 Lorsque ces organes sont des os constituant une articulation c'est un ligament articulaire.
-La différence entre un ligament et un tendon est que ce dernier relie un os à un muscle qui participe à son mouvement[1]. 
+La différence entre un ligament et un tendon est que ce dernier relie un os à un muscle qui participe à son mouvement. 
 La syndesmologie est la science qui étudie les ligaments.
 </t>
         </is>
@@ -514,7 +526,9 @@
           <t>Constitution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Un ligament est composée principalement de tissu conjonctif à longues molécules de collagène. 
 </t>
@@ -545,7 +559,9 @@
           <t>Ligaments articulaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les ligaments articulaires des jointures synoviales peuvent être dans la cavité articulaire : les ligaments intracapsulaires ou en dehors de la cavité : les ligaments extracapsulaires.
 Ils peuvent également être un simple épaississement de la capsule articulaire : les ligaments capsulaires.
@@ -577,7 +593,9 @@
           <t>Anatomie fonctionnelle</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les ligaments limitent la mobilité des articulations ou empêchent certains gestes et ainsi protègent l'articulation lors de mouvements forcés (hyperflexion ou hypertension).
 </t>
@@ -608,7 +626,9 @@
           <t>Exemples</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ligament artériel fixe l'aorte descendante et l'artère pulmonaire gauche ensemble ; c'est le reliquat du canal artériel qui se forme à la naissance. Au contraire du méso qui relie un organe creux à la paroi abdominale, le ligament relie un organe plein à cette même paroi ou encore deux organes entre eux, tel que le ligament gastro-splénique qui relie l'estomac et la rate. Ces ligaments peuvent contenir des vaisseaux.
 De même, le ligament desmodontal retient les dents dans les os maxillaires et permet des micromouvements. Les fibres nerveuses qu'il contient sont importantes pour la proprioception de la mastication.
@@ -641,7 +661,9 @@
           <t>Anatomie clinique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">En pathologie, les lésions des ligaments sont des :
 entorses (élongations) ligamentaires ;
